--- a/Useful data_files/OCL3/beam.xlsx
+++ b/Useful data_files/OCL3/beam.xlsx
@@ -8105,7 +8105,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9056,8 +9056,15 @@
       </c>
     </row>
     <row r="19" spans="1:24">
+      <c r="F19" s="1">
+        <f>AVERAGE(F14:F17)</f>
+        <v>0.52983800440009021</v>
+      </c>
       <c r="G19" t="s">
         <v>108</v>
+      </c>
+      <c r="H19">
+        <v>0.52983800440009021</v>
       </c>
       <c r="M19" t="s">
         <v>98</v>
@@ -11186,7 +11193,7 @@
   <dimension ref="A2:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K5" sqref="K5:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11206,9 +11213,8 @@
       <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="1">
-        <f>'Beam profile 9-11 april'!F17</f>
-        <v>0.55092405234048292</v>
+      <c r="I2">
+        <v>0.52983800440009021</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -11290,11 +11296,11 @@
       </c>
       <c r="Z4" s="2">
         <f>Y4/(X4*L5)</f>
-        <v>301.82737987452475</v>
+        <v>313.83925246370109</v>
       </c>
       <c r="AA4">
         <f>Z4/60</f>
-        <v>5.0304563312420791</v>
+        <v>5.2306542077283513</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -11312,34 +11318,34 @@
       </c>
       <c r="F5" s="1">
         <f>E5*$I$2</f>
-        <v>734567.42317550245</v>
+        <v>706452.61527280312</v>
       </c>
       <c r="G5" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
       <c r="H5" s="1">
         <f>F5/G5</f>
-        <v>644357388750.44067</v>
+        <v>619695276555.09045</v>
       </c>
       <c r="I5" s="1">
         <f>H5/Fluka!$D$13</f>
-        <v>7520511073184.4141</v>
+        <v>7232671294994.0527</v>
       </c>
       <c r="J5" s="1">
         <f>I5*Fluka!$D$11</f>
-        <v>2208.7741021942625</v>
+        <v>2124.2355593397533</v>
       </c>
       <c r="K5" s="2">
         <f>J5*100/1000</f>
-        <v>220.87741021942622</v>
+        <v>212.42355593397534</v>
       </c>
       <c r="L5" s="1">
         <f>K5*1000/E5</f>
-        <v>0.1656576021061639</v>
+        <v>0.1593172288281022</v>
       </c>
       <c r="M5" s="1">
         <f>J5/E5</f>
-        <v>1.6565760210616389E-3</v>
+        <v>1.5931722882810222E-3</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
@@ -11368,34 +11374,34 @@
       </c>
       <c r="F6" s="1">
         <f>E6*$I$2</f>
-        <v>581725.66518278699</v>
+        <v>559460.71738809487</v>
       </c>
       <c r="G6" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
       <c r="H6" s="1">
         <f>F6/G6</f>
-        <v>510285671212.97101</v>
+        <v>490755015252.71478</v>
       </c>
       <c r="I6" s="1">
         <f>H6/Fluka!$D$13</f>
-        <v>5955715116864.7402</v>
+        <v>5727766284462.124</v>
       </c>
       <c r="J6" s="1">
         <f>I6*Fluka!$D$11</f>
-        <v>1749.193529823174</v>
+        <v>1682.2449577465256</v>
       </c>
       <c r="K6" s="2">
         <f>J6*100/1000</f>
-        <v>174.91935298231738</v>
+        <v>168.22449577465258</v>
       </c>
       <c r="L6" s="1">
         <f>K6*1000/E6</f>
-        <v>0.16565760210616387</v>
+        <v>0.1593172288281022</v>
       </c>
       <c r="M6" s="1">
         <f>J6/E6</f>
-        <v>1.6565760210616389E-3</v>
+        <v>1.593172288281022E-3</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -11424,34 +11430,34 @@
       </c>
       <c r="F7" s="1">
         <f>E7*$I$2</f>
-        <v>399254.66073114797</v>
+        <v>383973.60178874538</v>
       </c>
       <c r="G7" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
       <c r="H7" s="1">
         <f>F7/G7</f>
-        <v>350223386606.27014</v>
+        <v>336818948937.49591</v>
       </c>
       <c r="I7" s="1">
         <f>H7/Fluka!$D$13</f>
-        <v>4087574540222.5737</v>
+        <v>3931126855012.7905</v>
       </c>
       <c r="J7" s="1">
         <f>I7*Fluka!$D$11</f>
-        <v>1200.5206424633698</v>
+        <v>1154.5719573172564</v>
       </c>
       <c r="K7" s="2">
         <f>J7*100/1000</f>
-        <v>120.05206424633697</v>
+        <v>115.45719573172565</v>
       </c>
       <c r="L7" s="1">
         <f>K7*1000/E7</f>
-        <v>0.1656576021061639</v>
+        <v>0.15931722882810218</v>
       </c>
       <c r="M7" s="1">
         <f>J7/E7</f>
-        <v>1.6565760210616391E-3</v>
+        <v>1.5931722882810218E-3</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -11480,34 +11486,34 @@
       </c>
       <c r="F8" s="1">
         <f>E8*$I$2</f>
-        <v>495829.44341022527</v>
+        <v>476852.08460806357</v>
       </c>
       <c r="G8" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
       <c r="H8" s="1">
         <f>F8/G8</f>
-        <v>434938108254.58356</v>
+        <v>418291302287.77502</v>
       </c>
       <c r="I8" s="1">
         <f>H8/Fluka!$D$13</f>
-        <v>5076308453018.0146</v>
+        <v>4882018000557.5977</v>
       </c>
       <c r="J8" s="1">
         <f>I8*Fluka!$D$11</f>
-        <v>1490.9117926513909</v>
+        <v>1433.8486867637664</v>
       </c>
       <c r="K8" s="2">
         <f>J8*100/1000</f>
-        <v>149.09117926513909</v>
+        <v>143.38486867637664</v>
       </c>
       <c r="L8" s="1">
         <f>K8*1000/E8</f>
-        <v>0.16565760210616393</v>
+        <v>0.15931722882810218</v>
       </c>
       <c r="M8" s="1">
         <f>J8/E8</f>
-        <v>1.6565760210616391E-3</v>
+        <v>1.5931722882810218E-3</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>

--- a/Useful data_files/OCL3/beam.xlsx
+++ b/Useful data_files/OCL3/beam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="9000" windowWidth="19980" windowHeight="16440" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="4935" yWindow="9000" windowWidth="19980" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Beam profile 14-15 nov" sheetId="1" r:id="rId1"/>
@@ -2126,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2853,6 +2853,9 @@
       <c r="B14">
         <v>-2</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
         <v>158</v>
       </c>
@@ -2910,6 +2913,9 @@
     <row r="15" spans="1:24">
       <c r="B15">
         <v>-2.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>104</v>
@@ -11192,7 +11198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K8"/>
     </sheetView>
   </sheetViews>
